--- a/data/trans_orig/P11_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P11_R2-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>19615</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11489</v>
+        <v>12675</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29876</v>
+        <v>31685</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04140106842669139</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02425082775888908</v>
+        <v>0.02675265973732329</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06305883397783577</v>
+        <v>0.06687670940528667</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -765,19 +765,19 @@
         <v>12391</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6840</v>
+        <v>6257</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21031</v>
+        <v>20431</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04040374610123863</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02230250390016586</v>
+        <v>0.02040379496223249</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.068577850543859</v>
+        <v>0.06661861937242848</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -786,19 +786,19 @@
         <v>32006</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21334</v>
+        <v>21592</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44874</v>
+        <v>43663</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04100917077716107</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02733586516700785</v>
+        <v>0.02766619158406912</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05749748859762986</v>
+        <v>0.0559456173777733</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>454161</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>443900</v>
+        <v>442091</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>462287</v>
+        <v>461101</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9585989315733086</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9369411660221642</v>
+        <v>0.9331232905947134</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9757491722411109</v>
+        <v>0.9732473402626767</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>286</v>
@@ -836,19 +836,19 @@
         <v>294289</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>285649</v>
+        <v>286249</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>299840</v>
+        <v>300423</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9595962538987614</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.931422149456141</v>
+        <v>0.9333813806275711</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9776974960998341</v>
+        <v>0.9795962050377675</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>723</v>
@@ -857,19 +857,19 @@
         <v>748451</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>735583</v>
+        <v>736794</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>759123</v>
+        <v>758865</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.958990829222839</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.94250251140237</v>
+        <v>0.9440543826222267</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.972664134832992</v>
+        <v>0.9723338084159309</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>8021</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3447</v>
+        <v>3412</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16245</v>
+        <v>16251</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02186070595863868</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009392968018841518</v>
+        <v>0.009298567268604042</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04427229232979665</v>
+        <v>0.04428771456148985</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -982,19 +982,19 @@
         <v>12800</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7002</v>
+        <v>7090</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21887</v>
+        <v>22163</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03442205152478998</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01883066256894184</v>
+        <v>0.01906509689156665</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05885606037484335</v>
+        <v>0.05959935856737091</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -1003,19 +1003,19 @@
         <v>20822</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12986</v>
+        <v>12547</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32073</v>
+        <v>31176</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02818329579122162</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01757653840184989</v>
+        <v>0.01698253218764543</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04341297279185282</v>
+        <v>0.04219754083494977</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>358913</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>350689</v>
+        <v>350683</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>363487</v>
+        <v>363522</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9781392940413614</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9557277076702035</v>
+        <v>0.9557122854385107</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9906070319811585</v>
+        <v>0.990701432731396</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>351</v>
@@ -1053,19 +1053,19 @@
         <v>359065</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>349978</v>
+        <v>349702</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>364863</v>
+        <v>364775</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9655779484752101</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9411439396251567</v>
+        <v>0.9404006414326291</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9811693374310582</v>
+        <v>0.9809349031084333</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>694</v>
@@ -1074,19 +1074,19 @@
         <v>717977</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>706726</v>
+        <v>707623</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>725813</v>
+        <v>726252</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9718167042087784</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9565870272081471</v>
+        <v>0.95780245916505</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9824234615981501</v>
+        <v>0.9830174678123546</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>20843</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12786</v>
+        <v>13499</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30419</v>
+        <v>30720</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03842764191823214</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02357270148486052</v>
+        <v>0.02488838038081655</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0560830155543713</v>
+        <v>0.05663878477270111</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1199,19 +1199,19 @@
         <v>15409</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8779</v>
+        <v>9027</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24790</v>
+        <v>24815</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09183923655240885</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05232535422917599</v>
+        <v>0.05380259230166853</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1477504412986222</v>
+        <v>0.1478973289247106</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -1220,19 +1220,19 @@
         <v>36252</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25791</v>
+        <v>25934</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49347</v>
+        <v>50086</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05104643262046706</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03631647248523925</v>
+        <v>0.03651765479514237</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0694862619265695</v>
+        <v>0.07052603945754486</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>521546</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>511970</v>
+        <v>511669</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>529603</v>
+        <v>528890</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9615723580817679</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9439169844456291</v>
+        <v>0.9433612152272988</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9764272985151397</v>
+        <v>0.9751116196191831</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>150</v>
@@ -1270,19 +1270,19 @@
         <v>152373</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>142992</v>
+        <v>142967</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>159003</v>
+        <v>158755</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9081607634475911</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8522495587013765</v>
+        <v>0.8521026710752895</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9476746457708241</v>
+        <v>0.9461974076983318</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>660</v>
@@ -1291,19 +1291,19 @@
         <v>673919</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>660824</v>
+        <v>660085</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>684380</v>
+        <v>684237</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.948953567379533</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9305137380734307</v>
+        <v>0.9294739605424552</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9636835275147608</v>
+        <v>0.9634823452048581</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>45282</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33679</v>
+        <v>33629</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58613</v>
+        <v>59946</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0365665253548255</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02719695980698962</v>
+        <v>0.02715644044417932</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04733241294062589</v>
+        <v>0.04840866588503182</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -1416,19 +1416,19 @@
         <v>30399</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20768</v>
+        <v>21115</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41274</v>
+        <v>42956</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04255925651589255</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02907589943098163</v>
+        <v>0.0295605784725533</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05778418044691394</v>
+        <v>0.06013830012999144</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>77</v>
@@ -1437,19 +1437,19 @@
         <v>75681</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>59631</v>
+        <v>59789</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>94614</v>
+        <v>95496</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03875871868820899</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03053892670553725</v>
+        <v>0.03061972905781888</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04845483024451937</v>
+        <v>0.04890683653107728</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1193052</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1179721</v>
+        <v>1178388</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1204655</v>
+        <v>1204705</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9634334746451745</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9526675870593738</v>
+        <v>0.9515913341149679</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.97280304019301</v>
+        <v>0.9728435595558205</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>664</v>
@@ -1487,19 +1487,19 @@
         <v>683886</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>673011</v>
+        <v>671329</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>693517</v>
+        <v>693170</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9574407434841075</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.942215819553086</v>
+        <v>0.9398616998700077</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9709241005690181</v>
+        <v>0.9704394215274464</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1841</v>
@@ -1508,19 +1508,19 @@
         <v>1876939</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1858006</v>
+        <v>1857124</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1892989</v>
+        <v>1892831</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.961241281311791</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9515451697554806</v>
+        <v>0.9510931634689227</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9694610732944628</v>
+        <v>0.9693802709421813</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>15364</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8971</v>
+        <v>9053</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25270</v>
+        <v>24989</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04382687314770622</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02559200418453367</v>
+        <v>0.02582503912458847</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0720844869959627</v>
+        <v>0.07128318486827381</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1633,19 +1633,19 @@
         <v>23997</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15274</v>
+        <v>15494</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34754</v>
+        <v>35006</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0421931789966992</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02685484904123974</v>
+        <v>0.02724288039168964</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06110501371030643</v>
+        <v>0.06154897655957907</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -1654,19 +1654,19 @@
         <v>39361</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>28538</v>
+        <v>28800</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>54554</v>
+        <v>53250</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04281614828205557</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03104349066344229</v>
+        <v>0.03132769812818707</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05934288446242641</v>
+        <v>0.05792434897032927</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>335191</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>325285</v>
+        <v>325566</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>341584</v>
+        <v>341502</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9561731268522938</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9279155130040371</v>
+        <v>0.9287168151317262</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9744079958154662</v>
+        <v>0.9741749608754113</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>515</v>
@@ -1704,19 +1704,19 @@
         <v>544755</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>533998</v>
+        <v>533746</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>553478</v>
+        <v>553258</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9578068210033008</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9388949862896933</v>
+        <v>0.9384510234404205</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9731451509587599</v>
+        <v>0.9727571196083101</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>840</v>
@@ -1725,19 +1725,19 @@
         <v>879946</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>864753</v>
+        <v>866057</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>890769</v>
+        <v>890507</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9571838517179444</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9406571155375736</v>
+        <v>0.9420756510296707</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9689565093365576</v>
+        <v>0.968672301871813</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>5762</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1940</v>
+        <v>1946</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11550</v>
+        <v>11653</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01932389213674971</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006507046549179707</v>
+        <v>0.006524956131213347</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03873379412346205</v>
+        <v>0.03907866162157708</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>76</v>
@@ -1850,19 +1850,19 @@
         <v>79509</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>64138</v>
+        <v>64206</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>98325</v>
+        <v>100900</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06367026162969225</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05136145777546763</v>
+        <v>0.0514155555641524</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07873822274758187</v>
+        <v>0.08080008637523201</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>82</v>
@@ -1871,19 +1871,19 @@
         <v>85271</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>69473</v>
+        <v>67117</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>108485</v>
+        <v>104468</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05512181273566325</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04490934528584303</v>
+        <v>0.04338644981102862</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07012767423833899</v>
+        <v>0.0675311280072672</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>292439</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>286651</v>
+        <v>286548</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>296261</v>
+        <v>296255</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9806761078632503</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9612662058765379</v>
+        <v>0.960921338378423</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9934929534508203</v>
+        <v>0.9934750438687867</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1162</v>
@@ -1921,19 +1921,19 @@
         <v>1169251</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1150435</v>
+        <v>1147860</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1184622</v>
+        <v>1184554</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9363297383703078</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9212617772524182</v>
+        <v>0.9191999136247678</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9486385422245323</v>
+        <v>0.9485844444358476</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1462</v>
@@ -1942,19 +1942,19 @@
         <v>1461689</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1438475</v>
+        <v>1442492</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1477487</v>
+        <v>1479843</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9448781872643367</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9298723257616611</v>
+        <v>0.9324688719927328</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9550906547141569</v>
+        <v>0.9566135501889712</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>114887</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>96514</v>
+        <v>96028</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>137458</v>
+        <v>137199</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03513152163929943</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02951338463980956</v>
+        <v>0.02936461554647691</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04203352729105827</v>
+        <v>0.04195448900943191</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>168</v>
@@ -2067,19 +2067,19 @@
         <v>174506</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>150130</v>
+        <v>151802</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>202649</v>
+        <v>203778</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05165769870151241</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04444187963996403</v>
+        <v>0.04493670291958166</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05998868834272733</v>
+        <v>0.06032274277330597</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>283</v>
@@ -2088,19 +2088,19 @@
         <v>289393</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>256334</v>
+        <v>255106</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>324222</v>
+        <v>324792</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04352875972706444</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0385563022947296</v>
+        <v>0.03837147052794167</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04876758048991998</v>
+        <v>0.04885322643006598</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3155303</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3132732</v>
+        <v>3132991</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3173676</v>
+        <v>3174162</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9648684783607006</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9579664727089418</v>
+        <v>0.9580455109905681</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9704866153601904</v>
+        <v>0.9706353844535232</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3128</v>
@@ -2138,19 +2138,19 @@
         <v>3203618</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3175475</v>
+        <v>3174346</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3227994</v>
+        <v>3226322</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9483423012984876</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9400113116572727</v>
+        <v>0.9396772572266946</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.955558120360036</v>
+        <v>0.9550632970804185</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6220</v>
@@ -2159,19 +2159,19 @@
         <v>6358921</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6324092</v>
+        <v>6323522</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6391980</v>
+        <v>6393208</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9564712402729356</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.95123241951008</v>
+        <v>0.951146773569934</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9614436977052704</v>
+        <v>0.9616285294720583</v>
       </c>
     </row>
     <row r="24">
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7090</v>
+        <v>7369</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004800745409071426</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01632207490755431</v>
+        <v>0.01696547764911082</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -2526,19 +2526,19 @@
         <v>16009</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8191</v>
+        <v>9103</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25806</v>
+        <v>25900</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05090902314745377</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02604744097654418</v>
+        <v>0.02895009548867067</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08206473138044733</v>
+        <v>0.08236624759289965</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -2547,19 +2547,19 @@
         <v>18094</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11021</v>
+        <v>10366</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29713</v>
+        <v>28892</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02416337419024568</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01471851928050995</v>
+        <v>0.0138427610986136</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03967977141267348</v>
+        <v>0.03858387076490757</v>
       </c>
     </row>
     <row r="5">
@@ -2576,7 +2576,7 @@
         <v>432271</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>427266</v>
+        <v>426987</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>434356</v>
@@ -2585,7 +2585,7 @@
         <v>0.9951992545909286</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.983677925092449</v>
+        <v>0.9830345223508893</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2597,19 +2597,19 @@
         <v>298445</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>288648</v>
+        <v>288554</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>306263</v>
+        <v>305351</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9490909768525463</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9179352686195522</v>
+        <v>0.9176337524071003</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9739525590234556</v>
+        <v>0.9710499045113293</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>668</v>
@@ -2618,19 +2618,19 @@
         <v>730716</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>719097</v>
+        <v>719918</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>737789</v>
+        <v>738444</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9758366258097543</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9603202285873266</v>
+        <v>0.961416129235093</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9852814807194901</v>
+        <v>0.9861572389013866</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>16164</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9236</v>
+        <v>9162</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26884</v>
+        <v>26772</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03868854901071187</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02210655634157006</v>
+        <v>0.02192929801153137</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06434764927500675</v>
+        <v>0.06407817913401501</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -2743,19 +2743,19 @@
         <v>19548</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11982</v>
+        <v>11612</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30830</v>
+        <v>30571</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05799431028575848</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03554653489255707</v>
+        <v>0.0344501964283943</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09146208521379032</v>
+        <v>0.09069507165531984</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -2764,19 +2764,19 @@
         <v>35712</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24498</v>
+        <v>25266</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49312</v>
+        <v>50430</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04730921234452922</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03245289674817157</v>
+        <v>0.03347104849151526</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06532534507296091</v>
+        <v>0.06680624055657119</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>401633</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>390913</v>
+        <v>391025</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>408561</v>
+        <v>408635</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9613114509892882</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9356523507249932</v>
+        <v>0.9359218208659849</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9778934436584299</v>
+        <v>0.9780707019884686</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>287</v>
@@ -2814,19 +2814,19 @@
         <v>317528</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>306246</v>
+        <v>306505</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>325094</v>
+        <v>325464</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9420056897142415</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9085379147862105</v>
+        <v>0.9093049283446805</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9644534651074431</v>
+        <v>0.9655498035716058</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>646</v>
@@ -2835,19 +2835,19 @@
         <v>719161</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>705561</v>
+        <v>704443</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>730375</v>
+        <v>729607</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9526907876554708</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9346746549270392</v>
+        <v>0.9331937594434285</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9675471032518284</v>
+        <v>0.9665289515084846</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>44620</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>32114</v>
+        <v>32755</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>60475</v>
+        <v>61697</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07135854428220813</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0513584561409792</v>
+        <v>0.05238244741491778</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09671331112026642</v>
+        <v>0.0986682683579914</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -2960,19 +2960,19 @@
         <v>24640</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16376</v>
+        <v>16266</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35402</v>
+        <v>35795</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09507849190854156</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06318857821325247</v>
+        <v>0.06276512445836835</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1366038643853583</v>
+        <v>0.1381199984715488</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -2981,19 +2981,19 @@
         <v>69261</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>52917</v>
+        <v>54311</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87824</v>
+        <v>89425</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07830879155729518</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05982955609158639</v>
+        <v>0.06140626871571414</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09929700476655685</v>
+        <v>0.1011076109307575</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>580680</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>564825</v>
+        <v>563603</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>593186</v>
+        <v>592545</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9286414557177919</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9032866888797336</v>
+        <v>0.9013317316420092</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9486415438590208</v>
+        <v>0.9476175525850823</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>220</v>
@@ -3031,19 +3031,19 @@
         <v>234517</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>223755</v>
+        <v>223362</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>242781</v>
+        <v>242891</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9049215080914584</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8633961356146417</v>
+        <v>0.8618800015284517</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9368114217867476</v>
+        <v>0.9372348755416317</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>770</v>
@@ -3052,19 +3052,19 @@
         <v>815196</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>796633</v>
+        <v>795032</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>831540</v>
+        <v>830146</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9216912084427048</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9007029952334419</v>
+        <v>0.8988923890692425</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9401704439084135</v>
+        <v>0.9385937312842858</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>79978</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>63044</v>
+        <v>63630</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>101465</v>
+        <v>100954</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06923606974459139</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05457660092633245</v>
+        <v>0.0550841586454498</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0878375831079108</v>
+        <v>0.08739534986433457</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -3177,19 +3177,19 @@
         <v>55131</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42739</v>
+        <v>42502</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72621</v>
+        <v>72598</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07200650592619938</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05582140444442116</v>
+        <v>0.05551225044860797</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09485077654639824</v>
+        <v>0.09482001194087246</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>121</v>
@@ -3198,19 +3198,19 @@
         <v>135109</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>111536</v>
+        <v>113170</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>158475</v>
+        <v>161695</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07034038537052291</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05806790982688445</v>
+        <v>0.05891839029921694</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.082505155889288</v>
+        <v>0.08418169887830967</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1075168</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1053681</v>
+        <v>1054192</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1092102</v>
+        <v>1091516</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9307639302554086</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9121624168920894</v>
+        <v>0.9126046501356654</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9454233990736676</v>
+        <v>0.9449158413545502</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>661</v>
@@ -3248,19 +3248,19 @@
         <v>710507</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>693017</v>
+        <v>693040</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>722899</v>
+        <v>723136</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9279934940738006</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9051492234536015</v>
+        <v>0.9051799880591276</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9441785955555787</v>
+        <v>0.9444877495513921</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1668</v>
@@ -3269,19 +3269,19 @@
         <v>1785675</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1762309</v>
+        <v>1759089</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1809248</v>
+        <v>1807614</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9296596146294771</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9174948441107121</v>
+        <v>0.9158183011216904</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9419320901731156</v>
+        <v>0.941081609700783</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>25055</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16713</v>
+        <v>16702</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35886</v>
+        <v>37284</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04940040092297959</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03295153655777996</v>
+        <v>0.03292971713149144</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07075478793264339</v>
+        <v>0.07351047283616065</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>92</v>
@@ -3394,19 +3394,19 @@
         <v>97921</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>80231</v>
+        <v>80901</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>118655</v>
+        <v>116644</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1287440852554764</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1054867641281282</v>
+        <v>0.1063665815025654</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1560053939921852</v>
+        <v>0.1533616732319875</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>116</v>
@@ -3415,19 +3415,19 @@
         <v>122976</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>102550</v>
+        <v>104419</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>144300</v>
+        <v>146693</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09700155661013436</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0808896710382755</v>
+        <v>0.08236435136041639</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1138220161174044</v>
+        <v>0.115709586838139</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>482135</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>471304</v>
+        <v>469906</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>490477</v>
+        <v>490488</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9505995990770204</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9292452120673567</v>
+        <v>0.9264895271638394</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.96704846344222</v>
+        <v>0.9670702828685086</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>610</v>
@@ -3465,19 +3465,19 @@
         <v>662662</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>641928</v>
+        <v>643939</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>680352</v>
+        <v>679682</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8712559147445236</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8439946060078148</v>
+        <v>0.8466383267680124</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8945132358718723</v>
+        <v>0.8936334184974346</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1070</v>
@@ -3486,19 +3486,19 @@
         <v>1144797</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1123473</v>
+        <v>1121080</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1165223</v>
+        <v>1163354</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9029984433898657</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8861779838825955</v>
+        <v>0.884290413161861</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9191103289617244</v>
+        <v>0.9176356486395838</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>4930</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12659</v>
+        <v>12863</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01860043281208176</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003924294911498261</v>
+        <v>0.003959391216837942</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04776385751966391</v>
+        <v>0.04853572161049979</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>126</v>
@@ -3611,19 +3611,19 @@
         <v>136287</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>113745</v>
+        <v>116034</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>155932</v>
+        <v>160405</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1228528380266381</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1025326878420539</v>
+        <v>0.1045967116271959</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1405616560691909</v>
+        <v>0.1445939442488406</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>130</v>
@@ -3632,19 +3632,19 @@
         <v>141217</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>121020</v>
+        <v>117877</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>168838</v>
+        <v>165690</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1027492750665668</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08805427172220548</v>
+        <v>0.08576727895578799</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1228467027612665</v>
+        <v>0.1205560852228202</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>260099</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>252370</v>
+        <v>252166</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>263989</v>
+        <v>263980</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9813995671879182</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9522361424803362</v>
+        <v>0.9514642783895002</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9960757050885017</v>
+        <v>0.996040608783162</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>918</v>
@@ -3682,19 +3682,19 @@
         <v>973064</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>953419</v>
+        <v>948946</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>995606</v>
+        <v>993317</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.877147161973362</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8594383439308091</v>
+        <v>0.8554060557511595</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8974673121579461</v>
+        <v>0.895403288372804</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1177</v>
@@ -3703,19 +3703,19 @@
         <v>1233164</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1205543</v>
+        <v>1208691</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1253361</v>
+        <v>1256504</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8972507249334333</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8771532972387336</v>
+        <v>0.8794439147771801</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9119457282777951</v>
+        <v>0.9142327210442126</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>172832</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>146409</v>
+        <v>147928</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>202209</v>
+        <v>203919</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05076114724474678</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04300046373076398</v>
+        <v>0.04344670635163853</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05938912029106937</v>
+        <v>0.05989129209601385</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>321</v>
@@ -3828,19 +3828,19 @@
         <v>349536</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>312675</v>
+        <v>311827</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>385274</v>
+        <v>387238</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09856462457459529</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08817042474726533</v>
+        <v>0.08793116027360882</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1086423244667249</v>
+        <v>0.1091962673074282</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>476</v>
@@ -3849,19 +3849,19 @@
         <v>522368</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>476450</v>
+        <v>479564</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>571182</v>
+        <v>571902</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0751492409377575</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06854325830144994</v>
+        <v>0.068991337831226</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08217178514902715</v>
+        <v>0.08227526377488391</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3231986</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3202609</v>
+        <v>3200899</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3258409</v>
+        <v>3256890</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9492388527552532</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9406108797089306</v>
+        <v>0.9401087079039862</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9569995362692361</v>
+        <v>0.9565532936483615</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2965</v>
@@ -3899,19 +3899,19 @@
         <v>3196724</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3160986</v>
+        <v>3159022</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3233585</v>
+        <v>3234433</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9014353754254048</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8913576755332745</v>
+        <v>0.8908037326925717</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9118295752527346</v>
+        <v>0.9120688397263912</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5999</v>
@@ -3920,19 +3920,19 @@
         <v>6428710</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6379896</v>
+        <v>6379176</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6474628</v>
+        <v>6471514</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9248507590622425</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9178282148509725</v>
+        <v>0.9177247362251161</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9314567416985501</v>
+        <v>0.931008662168774</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>13367</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7054</v>
+        <v>7593</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21871</v>
+        <v>22306</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03150139219005267</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01662381426500668</v>
+        <v>0.01789540447458929</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05154360494722809</v>
+        <v>0.0525692902948349</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -4287,19 +4287,19 @@
         <v>12914</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6829</v>
+        <v>7045</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21740</v>
+        <v>21211</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03751101882987319</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01983649483327077</v>
+        <v>0.02046386050094758</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06314569392229041</v>
+        <v>0.06161056748646324</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -4308,19 +4308,19 @@
         <v>26281</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17089</v>
+        <v>17528</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37519</v>
+        <v>38577</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03419327807769909</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02223435018692127</v>
+        <v>0.02280565967206484</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04881549605923324</v>
+        <v>0.05019182115076946</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>410952</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>402448</v>
+        <v>402013</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>417265</v>
+        <v>416726</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9684986078099473</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9484563950527719</v>
+        <v>0.9474307097051651</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9833761857349933</v>
+        <v>0.9821045955254107</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>317</v>
@@ -4358,19 +4358,19 @@
         <v>331362</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>322536</v>
+        <v>323065</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>337447</v>
+        <v>337231</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9624889811701268</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9368543060777097</v>
+        <v>0.9383894325135368</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9801635051667295</v>
+        <v>0.9795361394990525</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>696</v>
@@ -4379,19 +4379,19 @@
         <v>742314</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>731076</v>
+        <v>730018</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>751506</v>
+        <v>751067</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9658067219223009</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9511845039407668</v>
+        <v>0.9498081788492312</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9777656498130789</v>
+        <v>0.9771943403279352</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>7355</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3500</v>
+        <v>3436</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14625</v>
+        <v>14632</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0195480694835438</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009301373728155394</v>
+        <v>0.009132822411073667</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03887025072612662</v>
+        <v>0.03888867725011844</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -4504,19 +4504,19 @@
         <v>17851</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10906</v>
+        <v>10251</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29197</v>
+        <v>28032</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04819968450973721</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02944635350446455</v>
+        <v>0.02767960111195314</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07883584393083502</v>
+        <v>0.07569020939319225</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -4525,19 +4525,19 @@
         <v>25206</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16125</v>
+        <v>16380</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37612</v>
+        <v>37613</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0337609234977353</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02159805084772644</v>
+        <v>0.02193887582192004</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05037722181954515</v>
+        <v>0.05037883844181692</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>368889</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>361619</v>
+        <v>361612</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>372744</v>
+        <v>372808</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9804519305164562</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9611297492738734</v>
+        <v>0.9611113227498819</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9906986262718446</v>
+        <v>0.9908671775889264</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>335</v>
@@ -4575,19 +4575,19 @@
         <v>352506</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>341160</v>
+        <v>342325</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>359451</v>
+        <v>360106</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9518003154902628</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9211641560691652</v>
+        <v>0.9243097906068076</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9705536464955355</v>
+        <v>0.9723203988880466</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>680</v>
@@ -4596,19 +4596,19 @@
         <v>721395</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>708989</v>
+        <v>708988</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>730476</v>
+        <v>730221</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9662390765022647</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9496227781804549</v>
+        <v>0.9496211615581832</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9784019491522736</v>
+        <v>0.97806112417808</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>18959</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11660</v>
+        <v>11738</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28552</v>
+        <v>29028</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03658812081726584</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02250345064518641</v>
+        <v>0.02265266039358305</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05510247227223602</v>
+        <v>0.05602174698431508</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -4721,19 +4721,19 @@
         <v>20244</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12035</v>
+        <v>11884</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30492</v>
+        <v>30497</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1234755407896457</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07340630329471806</v>
+        <v>0.07248222448853683</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1859785431885392</v>
+        <v>0.1860112483516768</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -4742,19 +4742,19 @@
         <v>39203</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>26907</v>
+        <v>28662</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54475</v>
+        <v>53683</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05747254456597119</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03944572800735915</v>
+        <v>0.0420197035168272</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07986094606938045</v>
+        <v>0.07870055078635878</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>499204</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>489611</v>
+        <v>489135</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>506503</v>
+        <v>506425</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9634118791827342</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9448975277277635</v>
+        <v>0.9439782530156848</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9774965493548134</v>
+        <v>0.9773473396064166</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>134</v>
@@ -4792,19 +4792,19 @@
         <v>143711</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>133463</v>
+        <v>133458</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>151920</v>
+        <v>152071</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8765244592103543</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8140214568114608</v>
+        <v>0.8139887516483232</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9265936967052818</v>
+        <v>0.9275177755114631</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>613</v>
@@ -4813,19 +4813,19 @@
         <v>642915</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>627643</v>
+        <v>628435</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>655211</v>
+        <v>653456</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9425274554340288</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9201390539306196</v>
+        <v>0.9212994492136415</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9605542719926408</v>
+        <v>0.9579802964831731</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>56578</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>43628</v>
+        <v>43484</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73575</v>
+        <v>74154</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04956441197443496</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03822007267057485</v>
+        <v>0.03809369982169253</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06445408837111161</v>
+        <v>0.0649612869368774</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -4938,19 +4938,19 @@
         <v>68893</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52060</v>
+        <v>53129</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86966</v>
+        <v>87999</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08402430552745975</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06349479818285229</v>
+        <v>0.06479843741281575</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1060668631722112</v>
+        <v>0.1073270452833311</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>115</v>
@@ -4959,19 +4959,19 @@
         <v>125471</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>104107</v>
+        <v>103592</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>149446</v>
+        <v>151942</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06396935672261121</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05307748938876321</v>
+        <v>0.05281477559753581</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07619291158700216</v>
+        <v>0.07746532343353502</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1084926</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1067929</v>
+        <v>1067350</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1097876</v>
+        <v>1098020</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.950435588025565</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9355459116288883</v>
+        <v>0.9350387130631226</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9617799273294252</v>
+        <v>0.9619063001783075</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>731</v>
@@ -5009,19 +5009,19 @@
         <v>751020</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>732947</v>
+        <v>731914</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>767853</v>
+        <v>766784</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9159756944725402</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.893933136827789</v>
+        <v>0.892672954716669</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9365052018171478</v>
+        <v>0.9352015625871843</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1772</v>
@@ -5030,19 +5030,19 @@
         <v>1835946</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1811971</v>
+        <v>1809475</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1857310</v>
+        <v>1857825</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9360306432773888</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9238070884129983</v>
+        <v>0.9225346765664649</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9469225106112373</v>
+        <v>0.9471852244024641</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>40063</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28813</v>
+        <v>29611</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53985</v>
+        <v>55709</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06489082683074841</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04666927931531877</v>
+        <v>0.04796161916505175</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08744073933027491</v>
+        <v>0.09023319452669248</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>78</v>
@@ -5155,19 +5155,19 @@
         <v>86589</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67851</v>
+        <v>68355</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>105556</v>
+        <v>106400</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1177533486104258</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09227114040135412</v>
+        <v>0.0929565226284528</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1435473907442416</v>
+        <v>0.1446943693396288</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>117</v>
@@ -5176,19 +5176,19 @@
         <v>126652</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>106209</v>
+        <v>106235</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>151876</v>
+        <v>149852</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09362672409371095</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07851420640586658</v>
+        <v>0.07853398082095807</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1122734905237712</v>
+        <v>0.1107774663653393</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>577328</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>563406</v>
+        <v>561682</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>588578</v>
+        <v>587780</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9351091731692516</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9125592606697249</v>
+        <v>0.9097668054733073</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9533307206846811</v>
+        <v>0.9520383808349482</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>618</v>
@@ -5226,19 +5226,19 @@
         <v>648752</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>629785</v>
+        <v>628941</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>667490</v>
+        <v>666986</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8822466513895741</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8564526092557584</v>
+        <v>0.8553056306603712</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9077288595986459</v>
+        <v>0.9070434773715472</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1173</v>
@@ -5247,19 +5247,19 @@
         <v>1226080</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1200856</v>
+        <v>1202880</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1246523</v>
+        <v>1246497</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.906373275906289</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8877265094762289</v>
+        <v>0.8892225336346606</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9214857935941335</v>
+        <v>0.9214660191790419</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>3171</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8541</v>
+        <v>8752</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01118953376368513</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003314717556837795</v>
+        <v>0.003356489538349224</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03014147019966139</v>
+        <v>0.03088538663809887</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>96</v>
@@ -5372,19 +5372,19 @@
         <v>114286</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>93967</v>
+        <v>93667</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>138384</v>
+        <v>137748</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1062925714958192</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08739456768078566</v>
+        <v>0.08711575549181363</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1287054571010553</v>
+        <v>0.1281135799649567</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>99</v>
@@ -5393,19 +5393,19 @@
         <v>117457</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>95678</v>
+        <v>96766</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>139028</v>
+        <v>140705</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08645547347755181</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07042521376329812</v>
+        <v>0.07122603581607075</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1023329706164627</v>
+        <v>0.1035675623048853</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>280209</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>274839</v>
+        <v>274628</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>282441</v>
+        <v>282429</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9888104662363149</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9698585298003389</v>
+        <v>0.9691146133619011</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9966852824431622</v>
+        <v>0.9966435104616508</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>890</v>
@@ -5443,19 +5443,19 @@
         <v>960915</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>936817</v>
+        <v>937453</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>981234</v>
+        <v>981534</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8937074285041808</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8712945428989447</v>
+        <v>0.8718864200350435</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9126054323192143</v>
+        <v>0.9128842445081863</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1156</v>
@@ -5464,19 +5464,19 @@
         <v>1241124</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1219553</v>
+        <v>1217876</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1262903</v>
+        <v>1261815</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9135445265224482</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8976670293835374</v>
+        <v>0.8964324376951146</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9295747862367018</v>
+        <v>0.9287739641839292</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>139492</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>116430</v>
+        <v>118316</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>162562</v>
+        <v>162552</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04150310647338235</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03464150653954596</v>
+        <v>0.03520253495898052</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04836718441270946</v>
+        <v>0.04836420209262719</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>279</v>
@@ -5589,19 +5589,19 @@
         <v>320777</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>285768</v>
+        <v>285563</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>357765</v>
+        <v>354470</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09141439437207526</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08143753660606576</v>
+        <v>0.08137909354761577</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1019551938409857</v>
+        <v>0.1010162143813613</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>415</v>
@@ -5610,19 +5610,19 @@
         <v>460269</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>417851</v>
+        <v>418874</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>503573</v>
+        <v>506378</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06699651452008543</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06082218190562223</v>
+        <v>0.06097107756960703</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07329981990330456</v>
+        <v>0.07370818404361468</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3221509</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3198439</v>
+        <v>3198449</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3244571</v>
+        <v>3242685</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9584968935266176</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9516328155872903</v>
+        <v>0.9516357979073725</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9653584934604539</v>
+        <v>0.9647974650410194</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3025</v>
@@ -5660,19 +5660,19 @@
         <v>3188265</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3151277</v>
+        <v>3154572</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3223274</v>
+        <v>3223479</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9085856056279248</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8980448061590143</v>
+        <v>0.8989837856186388</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9185624633939343</v>
+        <v>0.9186209064523843</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6090</v>
@@ -5681,19 +5681,19 @@
         <v>6409775</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6366471</v>
+        <v>6363666</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6452193</v>
+        <v>6451170</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9330034854799146</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9267001800966955</v>
+        <v>0.9262918159563854</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9391778180943779</v>
+        <v>0.9390289224303929</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>26357</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18647</v>
+        <v>17880</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38637</v>
+        <v>37865</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0480056672334336</v>
+        <v>0.04800566723343361</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03396240549394317</v>
+        <v>0.03256667963115874</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07037194280746967</v>
+        <v>0.06896537994821064</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>55</v>
@@ -6048,19 +6048,19 @@
         <v>36295</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27687</v>
+        <v>27140</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47276</v>
+        <v>46892</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0745546615349439</v>
+        <v>0.07455466153494389</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05687310936939895</v>
+        <v>0.05574887088819609</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0971117268149651</v>
+        <v>0.09632200739289355</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>85</v>
@@ -6069,19 +6069,19 @@
         <v>62652</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>50487</v>
+        <v>50078</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>77933</v>
+        <v>79059</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06048284279082227</v>
+        <v>0.06048284279082226</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04873935368222321</v>
+        <v>0.04834431616459569</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07523485856164187</v>
+        <v>0.07632245462875704</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>522683</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>510403</v>
+        <v>511175</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>530393</v>
+        <v>531160</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9519943327665663</v>
+        <v>0.9519943327665664</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9296280571925306</v>
+        <v>0.9310346200517902</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.966037594506057</v>
+        <v>0.9674333203688417</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>629</v>
@@ -6119,19 +6119,19 @@
         <v>450526</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>439545</v>
+        <v>439929</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>459134</v>
+        <v>459681</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9254453384650561</v>
+        <v>0.9254453384650559</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.902888273185035</v>
+        <v>0.903677992607106</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.943126890630601</v>
+        <v>0.9442511291118035</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1152</v>
@@ -6140,19 +6140,19 @@
         <v>973209</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>957928</v>
+        <v>956802</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>985374</v>
+        <v>985783</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9395171572091778</v>
+        <v>0.9395171572091777</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9247651414383581</v>
+        <v>0.9236775453712439</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9512606463177768</v>
+        <v>0.9516556838354043</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>24898</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17456</v>
+        <v>16388</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36649</v>
+        <v>36186</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05163385854310155</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03620070698382045</v>
+        <v>0.03398564546913038</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07600323704231868</v>
+        <v>0.07504248483597745</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -6265,19 +6265,19 @@
         <v>33718</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25553</v>
+        <v>26373</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43164</v>
+        <v>43785</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07980925359173881</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06048214180428504</v>
+        <v>0.06242236076942733</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1021658163933551</v>
+        <v>0.1036359350297889</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>83</v>
@@ -6286,19 +6286,19 @@
         <v>58617</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>46798</v>
+        <v>46759</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73147</v>
+        <v>72284</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.06479158147795801</v>
+        <v>0.06479158147795799</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05172762770070878</v>
+        <v>0.05168530030878026</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08085309222740597</v>
+        <v>0.07989843293311541</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>457310</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>445559</v>
+        <v>446022</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>464752</v>
+        <v>465820</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9483661414568983</v>
+        <v>0.9483661414568985</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9239967629576809</v>
+        <v>0.9249575151640227</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9637992930161794</v>
+        <v>0.9660143545308698</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>535</v>
@@ -6336,19 +6336,19 @@
         <v>388768</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>379322</v>
+        <v>378701</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>396933</v>
+        <v>396113</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9201907464082612</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8978341836066449</v>
+        <v>0.8963640649702111</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.939517858195715</v>
+        <v>0.9375776392305727</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>986</v>
@@ -6357,19 +6357,19 @@
         <v>846077</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>831547</v>
+        <v>832410</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>857896</v>
+        <v>857935</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9352084185220421</v>
+        <v>0.9352084185220418</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.919146907772594</v>
+        <v>0.9201015670668845</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9482723722992911</v>
+        <v>0.9483146996912197</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>46984</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35414</v>
+        <v>34473</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61566</v>
+        <v>59672</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.09984488652369528</v>
+        <v>0.09984488652369526</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07525747397158557</v>
+        <v>0.07325708450229317</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1308325799182004</v>
+        <v>0.1268075236148621</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -6482,19 +6482,19 @@
         <v>30296</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22555</v>
+        <v>23219</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39113</v>
+        <v>39126</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1615793930638977</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1202937376370997</v>
+        <v>0.1238366193181543</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2086052895894594</v>
+        <v>0.2086741380071982</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>103</v>
@@ -6503,19 +6503,19 @@
         <v>77280</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>62905</v>
+        <v>62234</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>93975</v>
+        <v>93505</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1174342908550633</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09559042025761805</v>
+        <v>0.09457043485306084</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1428046256850559</v>
+        <v>0.1420905002141111</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>423588</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>409006</v>
+        <v>410900</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>435158</v>
+        <v>436099</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9001551134763048</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8691674200817995</v>
+        <v>0.8731924763851379</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9247425260284144</v>
+        <v>0.9267429154977068</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>238</v>
@@ -6553,19 +6553,19 @@
         <v>157201</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>148384</v>
+        <v>148371</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>164942</v>
+        <v>164278</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8384206069361021</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7913947104105413</v>
+        <v>0.7913258619928022</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8797062623629007</v>
+        <v>0.8761633806818457</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>673</v>
@@ -6574,19 +6574,19 @@
         <v>580789</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>564094</v>
+        <v>564564</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>595164</v>
+        <v>595835</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8825657091449366</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8571953743149441</v>
+        <v>0.8579094997858888</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.904409579742382</v>
+        <v>0.9054295651469393</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>117231</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>99662</v>
+        <v>98342</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>138008</v>
+        <v>138619</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1035752569643681</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08805283593108829</v>
+        <v>0.08688656801405061</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1219318921318457</v>
+        <v>0.1224721438352596</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>147</v>
@@ -6699,19 +6699,19 @@
         <v>86598</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74646</v>
+        <v>73781</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>100739</v>
+        <v>101367</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1005533297424513</v>
+        <v>0.1005533297424514</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0866758157939187</v>
+        <v>0.0856709341016033</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1169732821620809</v>
+        <v>0.1177025354760182</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>288</v>
@@ -6720,19 +6720,19 @@
         <v>203829</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>180195</v>
+        <v>181354</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>229339</v>
+        <v>228789</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1022694629586512</v>
+        <v>0.1022694629586513</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09041163271195465</v>
+        <v>0.09099292303995167</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1150691352159217</v>
+        <v>0.1147929397564121</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1014612</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>993835</v>
+        <v>993224</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1032181</v>
+        <v>1033501</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8964247430356318</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8780681078681543</v>
+        <v>0.8775278561647406</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9119471640689117</v>
+        <v>0.9131134319859493</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1083</v>
@@ -6770,19 +6770,19 @@
         <v>774613</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>760472</v>
+        <v>759844</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>786565</v>
+        <v>787430</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8994466702575487</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8830267178379192</v>
+        <v>0.8822974645239818</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9133241842060814</v>
+        <v>0.9143290658983968</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2060</v>
@@ -6791,19 +6791,19 @@
         <v>1789225</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1763715</v>
+        <v>1764265</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1812859</v>
+        <v>1811700</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8977305370413486</v>
+        <v>0.8977305370413489</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8849308647840786</v>
+        <v>0.8852070602435876</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9095883672880454</v>
+        <v>0.9090070769600481</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>53320</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40456</v>
+        <v>41014</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>66965</v>
+        <v>67843</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09387921679370288</v>
+        <v>0.09387921679370287</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07123060079518363</v>
+        <v>0.07221280111096164</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1179030955890939</v>
+        <v>0.119449584542844</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>268</v>
@@ -6916,19 +6916,19 @@
         <v>149549</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>131906</v>
+        <v>134039</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>169361</v>
+        <v>168501</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1800960757752864</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1588499624324511</v>
+        <v>0.1614179641876838</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2039552866462729</v>
+        <v>0.2029197365748481</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>331</v>
@@ -6937,19 +6937,19 @@
         <v>202869</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>181496</v>
+        <v>180089</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>226204</v>
+        <v>226352</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1450775836093793</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1297932164327302</v>
+        <v>0.1287870175329298</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1617653729859268</v>
+        <v>0.1618712888437142</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>514644</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>500999</v>
+        <v>500121</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>527508</v>
+        <v>526950</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9061207832062973</v>
+        <v>0.9061207832062969</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.882096904410906</v>
+        <v>0.8805504154571562</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9287693992048163</v>
+        <v>0.9277871988890384</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1021</v>
@@ -6987,19 +6987,19 @@
         <v>680835</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>661023</v>
+        <v>661883</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>698478</v>
+        <v>696345</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8199039242247136</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7960447133537271</v>
+        <v>0.7970802634251515</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8411500375675484</v>
+        <v>0.8385820358123154</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1505</v>
@@ -7008,19 +7008,19 @@
         <v>1195479</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1172144</v>
+        <v>1171996</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1216852</v>
+        <v>1218259</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8549224163906207</v>
+        <v>0.8549224163906206</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8382346270140733</v>
+        <v>0.8381287111562857</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8702067835672701</v>
+        <v>0.8712129824670702</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>5369</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2198</v>
+        <v>1759</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11571</v>
+        <v>11567</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02263373721997412</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009266791546725965</v>
+        <v>0.007413070184356626</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04877595984509803</v>
+        <v>0.04875786781637843</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>202</v>
@@ -7133,19 +7133,19 @@
         <v>118694</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>102621</v>
+        <v>102444</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>136465</v>
+        <v>137035</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1408774895272838</v>
+        <v>0.1408774895272839</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1218004711181341</v>
+        <v>0.1215902328595178</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1619690329463145</v>
+        <v>0.1626462120451579</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>209</v>
@@ -7154,19 +7154,19 @@
         <v>124064</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>106255</v>
+        <v>105856</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>142682</v>
+        <v>142085</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1148989175902971</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09840568495520274</v>
+        <v>0.09803601420037168</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1321423204003444</v>
+        <v>0.1315892986378892</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>231859</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>225657</v>
+        <v>225661</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>235030</v>
+        <v>235469</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9773662627800259</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9512240401549017</v>
+        <v>0.9512421321836213</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9907332084532741</v>
+        <v>0.9925869298156433</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>954</v>
@@ -7204,19 +7204,19 @@
         <v>723841</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>706070</v>
+        <v>705500</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>739914</v>
+        <v>740091</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8591225104727159</v>
+        <v>0.859122510472716</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8380309670536855</v>
+        <v>0.8373537879548419</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8781995288818658</v>
+        <v>0.8784097671404822</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1059</v>
@@ -7225,19 +7225,19 @@
         <v>955699</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>937081</v>
+        <v>937678</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>973508</v>
+        <v>973907</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8851010824097029</v>
+        <v>0.8851010824097028</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8678576795996557</v>
+        <v>0.8684107013621107</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9015943150447974</v>
+        <v>0.9019639857996283</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>274160</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>245608</v>
+        <v>245346</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>306486</v>
+        <v>306242</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07972416204028908</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07142150944587088</v>
+        <v>0.07134527238364922</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08912440702181725</v>
+        <v>0.08905364372281835</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>777</v>
@@ -7350,19 +7350,19 @@
         <v>455150</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>421740</v>
+        <v>423227</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>488153</v>
+        <v>488081</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1253532740833168</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1161517693122088</v>
+        <v>0.116561527971476</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.134442725062287</v>
+        <v>0.1344227903611582</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1099</v>
@@ -7371,19 +7371,19 @@
         <v>729309</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>683906</v>
+        <v>688743</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>774903</v>
+        <v>775370</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1031585756652993</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09673634684483991</v>
+        <v>0.09742065500705464</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1096076477531541</v>
+        <v>0.1096737503230919</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3164694</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3132368</v>
+        <v>3132612</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3193246</v>
+        <v>3193508</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.920275837959711</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9108755929781832</v>
+        <v>0.9109463562771818</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9285784905541292</v>
+        <v>0.9286547276163507</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4460</v>
@@ -7421,19 +7421,19 @@
         <v>3175786</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3142783</v>
+        <v>3142855</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3209196</v>
+        <v>3207709</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8746467259166832</v>
+        <v>0.8746467259166831</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8655572749377128</v>
+        <v>0.8655772096388418</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8838482306877909</v>
+        <v>0.883438472028524</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7435</v>
@@ -7442,19 +7442,19 @@
         <v>6340480</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6294886</v>
+        <v>6294419</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6385883</v>
+        <v>6381046</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8968414243347007</v>
+        <v>0.8968414243347008</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8903923522468453</v>
+        <v>0.8903262496769078</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.90326365315516</v>
+        <v>0.9025793449929455</v>
       </c>
     </row>
     <row r="24">
